--- a/input_example.xlsx
+++ b/input_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Codes/CMB_Codes/DataGenerator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Codes/DataGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{096F35DC-0D69-E44D-93C2-DE2482695A0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E6678B-A5FC-8B4E-98F7-C22DE6374054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{228639C1-B127-C84B-8238-B7752E23BC74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>MAX[num_1, MIN[num_2, num_3, num_5], num_6, AVG[num_1, num_2, 1/(0.6)*SUM[num_5, num_6, num_1, (2+5)*8]*0.6, num_3], num_2]</t>
+  </si>
+  <si>
+    <t>OutIdx</t>
+  </si>
+  <si>
+    <t>num_CAL1</t>
+  </si>
+  <si>
+    <t>num+num_CAL-num_MAX</t>
   </si>
 </sst>
 </file>
@@ -511,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00910B81-0065-8945-AA4E-EAD9E5C21208}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,34 +563,37 @@
         <v>27</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -642,8 +654,11 @@
       <c r="T2" t="s">
         <v>41</v>
       </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -674,9 +689,6 @@
       <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
       <c r="M3" t="s">
         <v>42</v>
       </c>
@@ -695,8 +707,11 @@
       <c r="R3" t="s">
         <v>42</v>
       </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -730,9 +745,6 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
       <c r="M4" t="s">
         <v>24</v>
       </c>
@@ -751,19 +763,25 @@
       <c r="R4" t="s">
         <v>24</v>
       </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="S5" t="s">
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" t="s">
         <v>43</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -787,6 +805,71 @@
       </c>
       <c r="K6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/input_example.xlsx
+++ b/input_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Codes/DataGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E6678B-A5FC-8B4E-98F7-C22DE6374054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486B1524-7B71-CC43-BA4E-98AA5D2D4F5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{228639C1-B127-C84B-8238-B7752E23BC74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>num+num_CAL-num_MAX</t>
+  </si>
+  <si>
+    <t>STR_RULE</t>
+  </si>
+  <si>
+    <t>RAND,DISTINCT</t>
+  </si>
+  <si>
+    <t>CMBB+ID</t>
   </si>
 </sst>
 </file>
@@ -520,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00910B81-0065-8945-AA4E-EAD9E5C21208}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,40 +569,43 @@
         <v>26</v>
       </c>
       <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -628,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>41</v>
@@ -657,8 +669,11 @@
       <c r="U2" t="s">
         <v>41</v>
       </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -689,9 +704,6 @@
       <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" t="s">
         <v>42</v>
       </c>
@@ -710,8 +722,11 @@
       <c r="S3" t="s">
         <v>42</v>
       </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -742,46 +757,49 @@
       <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
         <v>47</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -803,11 +821,11 @@
       <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -839,36 +857,39 @@
         <v>10</v>
       </c>
       <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
         <v>9</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>19</v>
       </c>
     </row>

--- a/input_example.xlsx
+++ b/input_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Codes/DataGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486B1524-7B71-CC43-BA4E-98AA5D2D4F5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CAB3A-B797-E74C-AA9E-B33C8C189567}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{228639C1-B127-C84B-8238-B7752E23BC74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>TIME_RAND</t>
-  </si>
-  <si>
-    <t>RAND,SET</t>
   </si>
   <si>
     <t>STR_RAND</t>
@@ -532,7 +529,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,46 +560,46 @@
         <v>23</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -631,46 +628,46 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -699,31 +696,31 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -749,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -761,25 +758,25 @@
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -787,16 +784,16 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
         <v>43</v>
-      </c>
-      <c r="V5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -822,12 +819,12 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>18</v>

--- a/input_example.xlsx
+++ b/input_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Codes/DataGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CAB3A-B797-E74C-AA9E-B33C8C189567}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A5BD7A-EFC4-F744-82B3-F58C9BE1F0BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{228639C1-B127-C84B-8238-B7752E23BC74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>CMBB+ID</t>
+  </si>
+  <si>
+    <t>%.2f</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,6 +824,12 @@
       <c r="L6" t="s">
         <v>30</v>
       </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
